--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD303A41-69A7-456A-9492-20E27640D735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA6CC6-7AAF-419A-A735-0FBB05334D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,28 +309,37 @@
     <t>SIQ ID</t>
   </si>
   <si>
-    <t>SIQ_01, SIQ_03, SIQ_07, SIQ_08, SIQ_11</t>
-  </si>
-  <si>
-    <t>SIQ_12, SIQ_13</t>
-  </si>
-  <si>
     <t>SIQ_06</t>
   </si>
   <si>
-    <t>SIQ_02, SIQ_06</t>
-  </si>
-  <si>
-    <t>SIQ_04, SIQ_02, SIQ_15</t>
-  </si>
-  <si>
     <t>SIQ_16</t>
   </si>
   <si>
-    <t>SIQ_02, SIQ_17</t>
-  </si>
-  <si>
     <t>SIQ_05</t>
+  </si>
+  <si>
+    <t>SIQ_04, 
+SIQ_02,
+SIQ_15</t>
+  </si>
+  <si>
+    <t>SIQ_02, 
+SIQ_17</t>
+  </si>
+  <si>
+    <t>SIQ_01, 
+SIQ_03, 
+SIQ_07, 
+SIQ_08, 
+SIQ_11</t>
+  </si>
+  <si>
+    <t>SIQ_12, 
+SIQ_13</t>
+  </si>
+  <si>
+    <t>SIQ_02, 
+SIQ_06</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,37 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +502,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,838 +836,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="15" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="19" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="17" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="17" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="17" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="17" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="17" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="15" t="s">
         <v>91</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="19" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="19" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="19" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="17" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="17" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="17" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="17" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="17" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="17" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -2426,11 +2441,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E55"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="A46:A55"/>
     <mergeCell ref="C28:C35"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="C3:C12"/>
@@ -2447,25 +2476,11 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E55"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA6CC6-7AAF-419A-A735-0FBB05334D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76BB5E-B3FA-4667-AF55-F9AD762A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -309,37 +309,64 @@
     <t>SIQ ID</t>
   </si>
   <si>
-    <t>SIQ_06</t>
-  </si>
-  <si>
-    <t>SIQ_16</t>
-  </si>
-  <si>
-    <t>SIQ_05</t>
-  </si>
-  <si>
-    <t>SIQ_04, 
-SIQ_02,
-SIQ_15</t>
-  </si>
-  <si>
-    <t>SIQ_02, 
-SIQ_17</t>
-  </si>
-  <si>
-    <t>SIQ_01, 
-SIQ_03, 
-SIQ_07, 
-SIQ_08, 
-SIQ_11</t>
-  </si>
-  <si>
-    <t>SIQ_12, 
-SIQ_13</t>
-  </si>
-  <si>
-    <t>SIQ_02, 
-SIQ_06</t>
+    <t>SIQ_04_Signup, 
+SIQ_02_Signup,
+SIQ_15_Signup</t>
+  </si>
+  <si>
+    <t>SIQ_16_Home</t>
+  </si>
+  <si>
+    <t>SIQ_12_Tour, 
+SIQ_13_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_05_Admin_Login</t>
+  </si>
+  <si>
+    <t>SIQ_02_Admin_Add, 
+SIQ_06_Admin_Add</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_User</t>
+  </si>
+  <si>
+    <t>SIQ_17_User_Login</t>
+  </si>
+  <si>
+    <t>SIQ_01_Tour, 
+SIQ_03_Tour, 
+SIQ_07_Tour, 
+SIQ_08_Tour, 
+SIQ_11_Tour,
+SIQ_11_Tour</t>
+  </si>
+  <si>
+    <t>Sequence_User_Login</t>
+  </si>
+  <si>
+    <t>User_Sign_up</t>
+  </si>
+  <si>
+    <t>Sequence_User_Book</t>
+  </si>
+  <si>
+    <t>Sequence_Select_Rating</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Login</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Admin</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Tour</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_User</t>
+  </si>
+  <si>
+    <t>Sequence_User_ViewGallery</t>
   </si>
 </sst>
 </file>
@@ -480,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,9 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,17 +551,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B62"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,22 +860,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -860,10 +884,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
@@ -874,798 +898,816 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="9" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="9" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="9" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="9" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="9" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="9" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="9" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="9" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="9" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="9" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="9" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="9" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="9" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="9" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="9" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="8"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="8"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="8"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="8"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="8"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
@@ -2440,7 +2482,9 @@
       <c r="H139" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="49">
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="E28:E35"/>
     <mergeCell ref="E36:E45"/>
     <mergeCell ref="E46:E55"/>
@@ -2450,37 +2494,44 @@
     <mergeCell ref="E13:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F35"/>
+    <mergeCell ref="F36:F45"/>
+    <mergeCell ref="F56:F62"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="B36:B45"/>
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="C46:C55"/>
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="C28:C35"/>
     <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD303A41-69A7-456A-9492-20E27640D735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76BB5E-B3FA-4667-AF55-F9AD762A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -309,28 +309,64 @@
     <t>SIQ ID</t>
   </si>
   <si>
-    <t>SIQ_01, SIQ_03, SIQ_07, SIQ_08, SIQ_11</t>
-  </si>
-  <si>
-    <t>SIQ_12, SIQ_13</t>
-  </si>
-  <si>
-    <t>SIQ_06</t>
-  </si>
-  <si>
-    <t>SIQ_02, SIQ_06</t>
-  </si>
-  <si>
-    <t>SIQ_04, SIQ_02, SIQ_15</t>
-  </si>
-  <si>
-    <t>SIQ_16</t>
-  </si>
-  <si>
-    <t>SIQ_02, SIQ_17</t>
-  </si>
-  <si>
-    <t>SIQ_05</t>
+    <t>SIQ_04_Signup, 
+SIQ_02_Signup,
+SIQ_15_Signup</t>
+  </si>
+  <si>
+    <t>SIQ_16_Home</t>
+  </si>
+  <si>
+    <t>SIQ_12_Tour, 
+SIQ_13_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_05_Admin_Login</t>
+  </si>
+  <si>
+    <t>SIQ_02_Admin_Add, 
+SIQ_06_Admin_Add</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_User</t>
+  </si>
+  <si>
+    <t>SIQ_17_User_Login</t>
+  </si>
+  <si>
+    <t>SIQ_01_Tour, 
+SIQ_03_Tour, 
+SIQ_07_Tour, 
+SIQ_08_Tour, 
+SIQ_11_Tour,
+SIQ_11_Tour</t>
+  </si>
+  <si>
+    <t>Sequence_User_Login</t>
+  </si>
+  <si>
+    <t>User_Sign_up</t>
+  </si>
+  <si>
+    <t>Sequence_User_Book</t>
+  </si>
+  <si>
+    <t>Sequence_Select_Rating</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Login</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Admin</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Tour</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_User</t>
+  </si>
+  <si>
+    <t>Sequence_User_ViewGallery</t>
   </si>
 </sst>
 </file>
@@ -471,12 +507,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,40 +551,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,838 +860,856 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="F20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="19" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="19" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="F36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="17" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="17" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="17" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="17" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="17" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="F46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="19" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="19" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="19" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="F56" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="17" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="17" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="17" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="17" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="17" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="17" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -2425,38 +2482,9 @@
       <c r="H139" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="B56:B62"/>
+  <mergeCells count="49">
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="E28:E35"/>
     <mergeCell ref="E36:E45"/>
     <mergeCell ref="E46:E55"/>
@@ -2466,6 +2494,44 @@
     <mergeCell ref="E13:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F35"/>
+    <mergeCell ref="F36:F45"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76BB5E-B3FA-4667-AF55-F9AD762A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9008BABA-BEE4-4E6B-B4B7-450EED708296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>REQ-02-Tour</t>
-  </si>
-  <si>
-    <t>User can give Rating &amp; Feedback</t>
   </si>
   <si>
     <t>REQ-03-Tour</t>
@@ -324,14 +321,40 @@
     <t>SIQ_05_Admin_Login</t>
   </si>
   <si>
-    <t>SIQ_02_Admin_Add, 
-SIQ_06_Admin_Add</t>
-  </si>
-  <si>
     <t>SIQ_06_Add_User</t>
   </si>
   <si>
     <t>SIQ_17_User_Login</t>
+  </si>
+  <si>
+    <t>Sequence_User_Login</t>
+  </si>
+  <si>
+    <t>User_Sign_up</t>
+  </si>
+  <si>
+    <t>Sequence_User_Book</t>
+  </si>
+  <si>
+    <t>Sequence_Select_Rating</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Login</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Admin</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_Tour</t>
+  </si>
+  <si>
+    <t>Sequence_Admin_Add_User</t>
+  </si>
+  <si>
+    <t>Sequence_User_ViewGallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tour Rating</t>
   </si>
   <si>
     <t>SIQ_01_Tour, 
@@ -339,34 +362,14 @@
 SIQ_07_Tour, 
 SIQ_08_Tour, 
 SIQ_11_Tour,
-SIQ_11_Tour</t>
-  </si>
-  <si>
-    <t>Sequence_User_Login</t>
-  </si>
-  <si>
-    <t>User_Sign_up</t>
-  </si>
-  <si>
-    <t>Sequence_User_Book</t>
-  </si>
-  <si>
-    <t>Sequence_Select_Rating</t>
-  </si>
-  <si>
-    <t>Sequence_Admin_Login</t>
-  </si>
-  <si>
-    <t>Sequence_Admin_Add_Admin</t>
-  </si>
-  <si>
-    <t>Sequence_Admin_Add_Tour</t>
-  </si>
-  <si>
-    <t>Sequence_Admin_Add_User</t>
-  </si>
-  <si>
-    <t>Sequence_User_ViewGallery</t>
+SIQ_10_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_02_Admin_Add_Admin, 
+SIQ_06_Admin_Add_Admin</t>
   </si>
 </sst>
 </file>
@@ -845,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,13 +864,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -889,32 +892,32 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1029,10 +1032,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>4</v>
@@ -1041,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1123,10 +1126,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>22</v>
@@ -1135,10 +1138,10 @@
         <v>23</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1169,10 +1172,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
@@ -1181,10 +1184,10 @@
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1197,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="8"/>
@@ -1211,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8"/>
@@ -1219,22 +1222,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1244,7 +1247,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -1253,22 +1256,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1278,7 +1281,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1290,7 +1293,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1302,7 +1305,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1314,7 +1317,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1326,7 +1329,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -1338,7 +1341,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1350,7 +1353,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1359,22 +1362,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -1384,7 +1387,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1396,7 +1399,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1408,7 +1411,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1420,7 +1423,7 @@
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1432,7 +1435,7 @@
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1444,7 +1447,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1456,7 +1459,7 @@
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1468,7 +1471,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1480,7 +1483,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -1489,22 +1492,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E46" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -1514,7 +1517,7 @@
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -1526,7 +1529,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -1538,7 +1541,7 @@
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -1550,7 +1553,7 @@
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -1562,7 +1565,7 @@
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -1574,7 +1577,7 @@
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
@@ -1586,7 +1589,7 @@
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -1598,7 +1601,7 @@
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -1610,7 +1613,7 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -1619,22 +1622,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -1644,7 +1647,7 @@
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -1656,7 +1659,7 @@
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -1668,7 +1671,7 @@
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -1680,7 +1683,7 @@
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -1692,7 +1695,7 @@
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -1704,7 +1707,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
@@ -2483,9 +2486,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F46:F55"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E28:E35"/>
     <mergeCell ref="E36:E45"/>
     <mergeCell ref="E46:E55"/>
     <mergeCell ref="E56:E62"/>
@@ -2501,6 +2501,9 @@
     <mergeCell ref="F28:F35"/>
     <mergeCell ref="F36:F45"/>
     <mergeCell ref="F56:F62"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E28:E35"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="B36:B45"/>
@@ -2510,20 +2513,17 @@
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="C46:C55"/>
     <mergeCell ref="A46:A55"/>
-    <mergeCell ref="C28:C35"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:C35"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
@@ -2532,6 +2532,9 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9008BABA-BEE4-4E6B-B4B7-450EED708296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED0331-5D2A-4AEE-B99D-E80F63DA7F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -96,18 +96,6 @@
     <t>User can land on Photo Gallery after logging in</t>
   </si>
   <si>
-    <t>REQ-01-Home</t>
-  </si>
-  <si>
-    <t>REQ-02-Home</t>
-  </si>
-  <si>
-    <t>REQ-03-Home</t>
-  </si>
-  <si>
-    <t>User can View &amp; Book Tour</t>
-  </si>
-  <si>
     <t>REQ-01-Tour</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>REQ-03-Tour</t>
   </si>
   <si>
-    <t>REQ-04-Tour</t>
-  </si>
-  <si>
     <t>ID for Customer Requirement</t>
   </si>
   <si>
@@ -135,12 +120,6 @@
     <t>Customer_Requirement_03</t>
   </si>
   <si>
-    <t>Customer_Requirement_04</t>
-  </si>
-  <si>
-    <t>Customer_Requirement_05</t>
-  </si>
-  <si>
     <t>Customer_Requirement_06</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
   </si>
   <si>
     <t>Layout_login</t>
-  </si>
-  <si>
-    <t>Layout_Home</t>
   </si>
   <si>
     <t>Layout_Tour</t>
@@ -314,10 +290,6 @@
     <t>SIQ_16_Home</t>
   </si>
   <si>
-    <t>SIQ_12_Tour, 
-SIQ_13_Tour</t>
-  </si>
-  <si>
     <t>SIQ_05_Admin_Login</t>
   </si>
   <si>
@@ -333,12 +305,6 @@
     <t>User_Sign_up</t>
   </si>
   <si>
-    <t>Sequence_User_Book</t>
-  </si>
-  <si>
-    <t>Sequence_Select_Rating</t>
-  </si>
-  <si>
     <t>Sequence_Admin_Login</t>
   </si>
   <si>
@@ -352,17 +318,6 @@
   </si>
   <si>
     <t>Sequence_User_ViewGallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tour Rating</t>
-  </si>
-  <si>
-    <t>SIQ_01_Tour, 
-SIQ_03_Tour, 
-SIQ_07_Tour, 
-SIQ_08_Tour, 
-SIQ_11_Tour,
-SIQ_10_Tour</t>
   </si>
   <si>
     <t>SIQ_06_Add_Tour</t>
@@ -370,6 +325,84 @@
   <si>
     <t>SIQ_02_Admin_Add_Admin, 
 SIQ_06_Admin_Add_Admin</t>
+  </si>
+  <si>
+    <t>SignUp.aspx</t>
+  </si>
+  <si>
+    <t>Login.aspx</t>
+  </si>
+  <si>
+    <t>REQ-01-UserHomePage</t>
+  </si>
+  <si>
+    <t>REQ-02-UserHomePage</t>
+  </si>
+  <si>
+    <t>Admin can land on his features after logging in</t>
+  </si>
+  <si>
+    <t>REQ-01-AdminHomePage</t>
+  </si>
+  <si>
+    <t>Layout_UserHomePage</t>
+  </si>
+  <si>
+    <t>Layout_AdminHomePage</t>
+  </si>
+  <si>
+    <t>Sequance_Admin_HomePage</t>
+  </si>
+  <si>
+    <t>AdminHome.aspx</t>
+  </si>
+  <si>
+    <t>UserHome.aspx</t>
+  </si>
+  <si>
+    <t>TourBooking.aspx</t>
+  </si>
+  <si>
+    <t>Login.aspx.cs_login_Click()</t>
+  </si>
+  <si>
+    <t>Login.aspx.cs_singUp_Click()</t>
+  </si>
+  <si>
+    <t>Login_controller.cs_Login_controller</t>
+  </si>
+  <si>
+    <t>Login_Controller.cs_login()</t>
+  </si>
+  <si>
+    <t>SignUp_controller.cs_saveUser()</t>
+  </si>
+  <si>
+    <t>SignUp_controller.cs_SignUp_controller()</t>
+  </si>
+  <si>
+    <t>AddAdmin.aspx.cs_ addA_Click()</t>
+  </si>
+  <si>
+    <t>AddAdmin.aspx</t>
+  </si>
+  <si>
+    <t>AddAdmin_controller.cs_add_Admin()</t>
+  </si>
+  <si>
+    <t>AddUser.aspx</t>
+  </si>
+  <si>
+    <t>AddUser_controller.cs_add_User()</t>
+  </si>
+  <si>
+    <t>REQ-11-Add_User</t>
+  </si>
+  <si>
+    <t>AddTour.aspx</t>
+  </si>
+  <si>
+    <t>AddTour_controller.cs_saveTour()</t>
   </si>
 </sst>
 </file>
@@ -510,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -530,10 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,16 +584,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B55"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,27 +894,27 @@
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
     <col min="4" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -887,429 +923,469 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
+      <c r="A3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="E3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="E13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="15"/>
       <c r="D24" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1317,129 +1393,149 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="8" t="s">
+      <c r="A33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="8" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="8" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="7" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="7"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1447,235 +1543,271 @@
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="7" t="s">
+      <c r="A43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="7" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="7" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="8" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="8"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="15"/>
       <c r="D53" s="8" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="8" t="s">
+      <c r="A54" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="8" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1683,36 +1815,44 @@
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+    <row r="61" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -2444,97 +2584,52 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E55"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F35"/>
-    <mergeCell ref="F36:F45"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="F46:F55"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C28:C35"/>
+  <mergeCells count="44">
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="F54:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED0331-5D2A-4AEE-B99D-E80F63DA7F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709421E-FC8E-466B-8664-59FFF4F31081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>REQ-10-Add_Admin</t>
-  </si>
-  <si>
-    <t>Customer_Requirement_08</t>
   </si>
   <si>
     <t>Admin can Add User</t>
@@ -302,9 +299,6 @@
     <t>Sequence_User_Login</t>
   </si>
   <si>
-    <t>User_Sign_up</t>
-  </si>
-  <si>
     <t>Sequence_Admin_Login</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
   </si>
   <si>
     <t>Sequence_Admin_Add_User</t>
-  </si>
-  <si>
-    <t>Sequence_User_ViewGallery</t>
   </si>
   <si>
     <t>SIQ_06_Add_Tour</t>
@@ -351,9 +342,6 @@
     <t>Layout_AdminHomePage</t>
   </si>
   <si>
-    <t>Sequance_Admin_HomePage</t>
-  </si>
-  <si>
     <t>AdminHome.aspx</t>
   </si>
   <si>
@@ -403,6 +391,38 @@
   </si>
   <si>
     <t>AddTour_controller.cs_saveTour()</t>
+  </si>
+  <si>
+    <t>Customer_Requirement_04</t>
+  </si>
+  <si>
+    <t>SIQ_01_Tour,
+SIQ_03_Tour,
+SIQ_07_Tour,
+SIQ_08_Tour,
+SIQ_11_Tour,
+SIQ_10_Tour</t>
+  </si>
+  <si>
+    <t>User can vire and book tour</t>
+  </si>
+  <si>
+    <t>Sequence_User_Book</t>
+  </si>
+  <si>
+    <t>Customer_Requirement_05</t>
+  </si>
+  <si>
+    <t>Customer_Reqirement_10</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sequance_User_Sign_up</t>
+  </si>
+  <si>
+    <t>Sequance_Admin_Login</t>
   </si>
 </sst>
 </file>
@@ -566,6 +586,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,13 +608,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,16 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,22 +919,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -923,924 +943,936 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>91</v>
+      <c r="E3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>90</v>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+    <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
+    <row r="23" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="15"/>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>92</v>
+      <c r="E25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
+      <c r="A33" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>93</v>
+      <c r="E33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="F54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="7" t="s">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="F61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -2586,12 +2618,32 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
@@ -2603,33 +2655,13 @@
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="F33:F42"/>
-    <mergeCell ref="F54:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709421E-FC8E-466B-8664-59FFF4F31081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0FC28-AD4D-44A3-8E15-D29F8D246A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -583,21 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,9 +593,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,8 +610,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="A33:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,22 +925,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -943,10 +949,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="6" t="s">
         <v>73</v>
       </c>
@@ -957,22 +963,22 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -981,148 +987,148 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1131,106 +1137,106 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1239,24 +1245,24 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -1268,7 +1274,7 @@
       <c r="E22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1277,8 +1283,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="21"/>
       <c r="D23" s="8" t="s">
         <v>24</v>
@@ -1286,15 +1292,15 @@
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
         <v>25</v>
@@ -1302,29 +1308,29 @@
       <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1333,120 +1339,120 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -1454,149 +1460,149 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -1604,163 +1610,163 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -1769,84 +1775,84 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="7" t="s">
         <v>119</v>
       </c>
@@ -2618,32 +2624,10 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="F33:F42"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
@@ -2655,13 +2639,35 @@
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="A33:A42"/>
     <mergeCell ref="C43:C53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="F33:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0FC28-AD4D-44A3-8E15-D29F8D246A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C498DED-2B78-421B-8FD7-61D3D53D0F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>Sequance_Admin_Login</t>
+  </si>
+  <si>
+    <t>REQ-02-AdminHomePage</t>
+  </si>
+  <si>
+    <t>REQ-03-AdminHomePage</t>
+  </si>
+  <si>
+    <t>REQ-04-AdminHomePage</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -583,13 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,17 +604,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,7 +619,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="A33:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,22 +937,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -949,10 +961,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="6" t="s">
         <v>73</v>
       </c>
@@ -963,22 +975,22 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -987,148 +999,148 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1137,106 +1149,106 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1245,27 +1257,27 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1274,7 +1286,7 @@
       <c r="E22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1283,54 +1295,54 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1339,120 +1351,120 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -1461,148 +1473,148 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -1611,162 +1623,162 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -1775,142 +1787,148 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
@@ -2612,35 +2630,51 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="50">
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B12"/>
     <mergeCell ref="E43:E53"/>
     <mergeCell ref="F43:F53"/>
     <mergeCell ref="C25:C32"/>
     <mergeCell ref="F33:F42"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E25:E32"/>
     <mergeCell ref="F25:F32"/>
@@ -2648,26 +2682,6 @@
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C43:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C498DED-2B78-421B-8FD7-61D3D53D0F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289215C-B525-4457-B55E-5DDF6C512D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -433,15 +433,93 @@
   <si>
     <t>REQ-04-AdminHomePage</t>
   </si>
+  <si>
+    <t>REQ-05-AdminHomePage</t>
+  </si>
+  <si>
+    <t>TC_AdminHomePage_001</t>
+  </si>
+  <si>
+    <t>TC_AdminHomePage_002</t>
+  </si>
+  <si>
+    <t>TC_AdminHomePage_003</t>
+  </si>
+  <si>
+    <t>TC_AdminHomePage_004</t>
+  </si>
+  <si>
+    <t>TC_AdminHomePage_005</t>
+  </si>
+  <si>
+    <t>REQ-08-User_Login</t>
+  </si>
+  <si>
+    <t>REQ-09-User_Login</t>
+  </si>
+  <si>
+    <t>REQ-10-User_Login</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_001</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_002</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_003</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_004</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_005</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_006</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_007</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_008</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_009</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_010</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_011</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_012</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_013</t>
+  </si>
+  <si>
+    <t>TC_UserLogin_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_UserLogin_001 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -598,6 +676,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,17 +697,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,10 +724,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B64"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,22 +1033,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -961,10 +1057,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6" t="s">
         <v>73</v>
       </c>
@@ -975,22 +1071,22 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -999,1056 +1095,1114 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8" t="s">
+      <c r="H19" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8" t="s">
+      <c r="H21" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8" t="s">
+      <c r="H22" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8" t="s">
+      <c r="H23" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="H24" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7" t="s">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C32" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F32" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="8" t="s">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="8" t="s">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="8" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F35" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8" t="s">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="8" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8" t="s">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="8" t="s">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="8" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="8" t="s">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="8" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8" t="s">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8" t="s">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="8" t="s">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="8" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E43" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="7" t="s">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="7" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="7" t="s">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="7" t="s">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="7" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="7" t="s">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="7" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="7" t="s">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="7" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="7" t="s">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="7" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="7" t="s">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="7" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="7" t="s">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="7" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7" t="s">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="7" t="s">
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B53" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C53" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F53" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
       <c r="G53" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B64" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C64" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E64" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F64" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="7" t="s">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="7" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="7" t="s">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="7" t="s">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="7" t="s">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="7" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="7" t="s">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="7" t="s">
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="7" t="s">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="7" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="7" t="s">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="7" t="s">
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B71" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C71" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E71" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F71" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G71" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="9" t="s">
+      <c r="H71" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="9" t="s">
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="9" t="s">
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="11" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
@@ -2630,59 +2784,190 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="F33:F42"/>
+  <mergeCells count="60">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="E13:E29"/>
+    <mergeCell ref="F13:F29"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C13:C29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="B13:B29"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E64:E70"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F53:F63"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289215C-B525-4457-B55E-5DDF6C512D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -505,11 +504,53 @@
   <si>
     <t xml:space="preserve">TC_UserLogin_001 </t>
   </si>
+  <si>
+    <t>TC_Admin_Login_001</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_002</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_005,
+TC_Admin_Login_006,
+TC_Admin_Login_007,
+TC_Admin_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_005,
+TC_Admin_Login_006,
+TC_Admin_Login_007,
+TC_Admin_Login_009</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_002,
+TC_Admin_Login_004,
+TC_Admin_Login_006,
+TC_Admin_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_003,
+TC_Admin_Login_004,
+TC_Admin_Login_005,
+TC_Admin_Login_006,
+TC_Admin_Login_007</t>
+  </si>
+  <si>
+    <t>TC_Admin_Login_003,
+TC_Admin_Login_007</t>
+  </si>
+  <si>
+    <t>TC_User_Home_001,
+TC_User_Home_002</t>
+  </si>
+  <si>
+    <t>TC_User_Home_003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -679,13 +720,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,17 +747,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,17 +756,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,6 +769,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,24 +1059,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -1045,10 +1089,10 @@
       <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1070,23 +1114,23 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1094,149 +1138,149 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+    <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1246,107 +1290,107 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="14" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="14" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="13"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
@@ -1354,15 +1398,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="13"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="8" t="s">
         <v>97</v>
       </c>
@@ -1370,15 +1414,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="13"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="11" t="s">
         <v>97</v>
       </c>
@@ -1386,71 +1430,71 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="30" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="13"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="11" t="s">
         <v>108</v>
       </c>
@@ -1458,15 +1502,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="14"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="11" t="s">
         <v>97</v>
       </c>
@@ -1474,52 +1518,56 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="18" t="s">
         <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="H30" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="H31" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1528,7 +1576,7 @@
       <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>124</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -1536,177 +1584,193 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="24"/>
+    <row r="33" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="24"/>
+    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="H35" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="H37" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="H38" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="H39" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="H41" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="H42" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="18" t="s">
         <v>91</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -1714,149 +1778,149 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="16"/>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="16"/>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="16"/>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="16"/>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="16"/>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="16"/>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="16"/>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="16"/>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="17"/>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -1864,163 +1928,163 @@
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -2028,183 +2092,183 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="12" t="s">
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="12" t="s">
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
       <c r="H75" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="27"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2214,7 +2278,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2224,7 +2288,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2234,7 +2298,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2244,7 +2308,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2254,7 +2318,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2264,7 +2328,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2274,7 +2338,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2284,7 +2348,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2294,7 +2358,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2304,7 +2368,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2314,7 +2378,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2324,7 +2388,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2334,7 +2398,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2344,7 +2408,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2354,7 +2418,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2364,7 +2428,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2374,7 +2438,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2384,7 +2448,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2394,7 +2458,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2404,7 +2468,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2414,7 +2478,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2424,7 +2488,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2434,7 +2498,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2444,7 +2508,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2454,7 +2518,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2464,7 +2528,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2474,7 +2538,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2484,7 +2548,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2494,7 +2558,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2504,7 +2568,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2514,7 +2578,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2524,7 +2588,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2534,7 +2598,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2544,7 +2608,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2554,7 +2618,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2564,7 +2628,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2574,7 +2638,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2584,7 +2648,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2594,7 +2658,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2604,7 +2668,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2614,7 +2678,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2624,7 +2688,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2634,7 +2698,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2644,7 +2708,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2654,7 +2718,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2664,7 +2728,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2674,7 +2738,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2684,7 +2748,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2694,7 +2758,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2704,7 +2768,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2714,7 +2778,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2724,7 +2788,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2734,7 +2798,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2744,7 +2808,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2754,7 +2818,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2764,7 +2828,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2774,7 +2838,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2784,7 +2848,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2794,7 +2858,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2804,7 +2868,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2814,7 +2878,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2824,7 +2888,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2834,7 +2898,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2844,7 +2908,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2854,7 +2918,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2864,7 +2928,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2874,7 +2938,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2884,7 +2948,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2894,7 +2958,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2906,43 +2970,18 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="E13:E29"/>
-    <mergeCell ref="F13:F29"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C13:C29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A13:A29"/>
-    <mergeCell ref="B13:B29"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="E64:E70"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="F53:F63"/>
-    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="E35:E42"/>
     <mergeCell ref="F35:F42"/>
@@ -2954,18 +2993,43 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="C35:C42"/>
     <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E64:E70"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F53:F63"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="B13:B29"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C13:C29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E29"/>
+    <mergeCell ref="F13:F29"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F3:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitor and Control/Traceability Matrix.xlsx
+++ b/Monitor and Control/Traceability Matrix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossay\Downloads\New folder\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB940C11-F01C-470A-9E0D-126089C57387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="173">
   <si>
     <t>Specific requirements</t>
   </si>
@@ -546,11 +547,53 @@
   <si>
     <t>TC_User_Home_003</t>
   </si>
+  <si>
+    <t>TC_AddTour_001
+TC_AddTour_002
+TC_AddTour_003
+TC_AddTour_004
+TC_AddTour_005</t>
+  </si>
+  <si>
+    <t>TC_AddTour_006
+TC_AddTour_007
+TC_AddTour_008
+TC_AddTour_009
+TC_AddTour_010
+TC_AddTour_011</t>
+  </si>
+  <si>
+    <t>TC_AddTour_012
+TC_AddTour_013
+TC_AddTour_014
+TC_AddTour_015
+TC_AddTour_016
+TC_AddTour_017
+TC_AddTour_018
+TC_AddTour_019
+TC_AddTour_020
+TC_AddTour_021</t>
+  </si>
+  <si>
+    <t>TC_AddTour_022</t>
+  </si>
+  <si>
+    <t>TC_AddTour_023
+TC_AddTour_024</t>
+  </si>
+  <si>
+    <t>TC_AddTour_025
+TC_AddTour_026</t>
+  </si>
+  <si>
+    <t>TC_Thank_You_001
+TC_Thank_You_002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -726,16 +769,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +793,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,29 +814,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,22 +1123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1101,10 +1147,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="6" t="s">
         <v>73</v>
       </c>
@@ -1115,22 +1161,22 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1139,148 +1185,148 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1291,15 +1337,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -1307,63 +1353,63 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -1371,26 +1417,26 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
@@ -1399,14 +1445,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="8" t="s">
         <v>97</v>
       </c>
@@ -1415,14 +1461,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="11" t="s">
         <v>97</v>
       </c>
@@ -1431,15 +1477,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="14" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="11" t="s">
@@ -1447,27 +1493,27 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="14" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H26" s="13" t="s">
@@ -1475,26 +1521,26 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="11" t="s">
         <v>108</v>
       </c>
@@ -1503,14 +1549,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="11" t="s">
         <v>97</v>
       </c>
@@ -1519,40 +1565,40 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="19" t="s">
         <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="7" t="s">
         <v>105</v>
       </c>
@@ -1561,13 +1607,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1576,7 +1622,7 @@
       <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="16" t="s">
         <v>124</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -1585,54 +1631,56 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -1643,14 +1691,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="8" t="s">
         <v>97</v>
       </c>
@@ -1659,14 +1707,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="8" t="s">
         <v>97</v>
       </c>
@@ -1675,14 +1723,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="8" t="s">
         <v>97</v>
       </c>
@@ -1691,14 +1739,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
@@ -1707,14 +1755,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="8" t="s">
         <v>110</v>
       </c>
@@ -1723,14 +1771,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="8" t="s">
         <v>97</v>
       </c>
@@ -1739,14 +1787,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="8" t="s">
         <v>97</v>
       </c>
@@ -1755,22 +1803,22 @@
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -1779,148 +1827,148 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="16" t="s">
         <v>93</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -1929,162 +1977,162 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="19" t="s">
         <v>92</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -2092,110 +2140,122 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+      <c r="H65" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+      <c r="H66" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
       <c r="G67" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
+      <c r="H68" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+      <c r="H69" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
       <c r="G70" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="15" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="16" t="s">
         <v>104</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -2203,67 +2263,67 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="14" t="s">
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="15"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="14" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="12"/>
       <c r="D76" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="11" t="s">
         <v>138</v>
       </c>
@@ -2970,53 +3030,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="E64:E70"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="F53:F63"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A13:A29"/>
-    <mergeCell ref="B13:B29"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C13:C29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="G26:G27"/>
@@ -3030,6 +3043,53 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F3:F12"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C13:C29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="B13:B29"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E64:E70"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F53:F63"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="A64:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
